--- a/data/expt_2/raw_transcripts/game68.xlsx
+++ b/data/expt_2/raw_transcripts/game68.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0088.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0088.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
   </si>
   <si>
     <t xml:space="preserve">echo </t>
   </si>
   <si>
-    <t>description</t>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're on camera.</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now remember if you ever want to leave my gay room, just let me know.</t>
@@ -52,31 +61,31 @@
     <t xml:space="preserve"> So, today we're going to be playing a matching game, but before we start, we're going to practice touching on iPads like playing a game of touching bubbles.</t>
   </si>
   <si>
-    <t>So you're going to press the blue button on your screen and then press the bubbles until you poplubble.</t>
-  </si>
-  <si>
-    <t>bubbles until you pop all of them.</t>
+    <t xml:space="preserve">So you're going to press the blue button on your screen and then press the bubbles until you poplubble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubbles until you pop all of them.</t>
   </si>
   <si>
     <t xml:space="preserve"> You can press all of the bubbles, [id124].</t>
   </si>
   <si>
-    <t>I press all of them.</t>
-  </si>
-  <si>
-    <t>id123</t>
-  </si>
-  <si>
-    <t>You can press those bubbles too.</t>
+    <t xml:space="preserve">I press all of them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can press those bubbles too.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you can press those bubbles.</t>
   </si>
   <si>
-    <t>Nice job.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">Nice job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> Great job, guys.</t>
@@ -85,19 +94,19 @@
     <t xml:space="preserve"> Okay, so today we're going to be playing a magic.</t>
   </si>
   <si>
-    <t>to be playing a matching game.</t>
+    <t xml:space="preserve">to be playing a matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, in the matching game, it's your job to help Smurphy.</t>
   </si>
   <si>
-    <t>This is Smurphy. Do you want to say hi?</t>
-  </si>
-  <si>
-    <t>Hi.</t>
-  </si>
-  <si>
-    <t>id124</t>
+    <t xml:space="preserve">This is Smurphy. Do you want to say hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id124</t>
   </si>
   <si>
     <t xml:space="preserve"> Great, Smurphy says hi back.</t>
@@ -112,19 +121,19 @@
     <t xml:space="preserve"> It's Smurphy's job to guess which picture is in the black box,</t>
   </si>
   <si>
-    <t>and he needs your help.</t>
+    <t xml:space="preserve">and he needs your help.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you see a picture with a black box around it, that means you're the teller.</t>
   </si>
   <si>
-    <t>It is your job to tell Smurphy what you see in the black box.</t>
+    <t xml:space="preserve">It is your job to tell Smurphy what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you don't have a black box, that means you're holding Smurphy and you're the guesser.</t>
   </si>
   <si>
-    <t>It's your job to help Smurphy guess.</t>
+    <t xml:space="preserve">It's your job to help Smurphy guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> When you think you know what picture the teller is telling you, you're going to click the picture on your screen.</t>
@@ -136,13 +145,13 @@
     <t xml:space="preserve"> But if you don't guess it and if you don't guess it right, then you get a frowny face, which means you guessed it wrong.</t>
   </si>
   <si>
-    <t>But that's okay because you have a lot of times to help Murphy get it right.</t>
+    <t xml:space="preserve">But that's okay because you have a lot of times to help Murphy get it right.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, each time we're going to switch off being the teller and the guessers,</t>
   </si>
   <si>
-    <t>so Smurphy will trade off between you guys.</t>
+    <t xml:space="preserve">so Smurphy will trade off between you guys.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, just to recap, if you have the black box, what are you?</t>
@@ -151,13 +160,13 @@
     <t xml:space="preserve"> If you have the black box, you're the teller.</t>
   </si>
   <si>
-    <t>So you're telling Smurphy what you see.</t>
+    <t xml:space="preserve">So you're telling Smurphy what you see.</t>
   </si>
   <si>
     <t xml:space="preserve"> And if you don't have the black box, then what are you?</t>
   </si>
   <si>
-    <t>Guesser.</t>
+    <t xml:space="preserve">Guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, you're guessing and you're helping Smurphy guess what's being told to you.</t>
@@ -166,19 +175,19 @@
     <t xml:space="preserve"> Alright, now you're ready to begin.</t>
   </si>
   <si>
-    <t>So you can press the blue button on your screen.</t>
-  </si>
-  <si>
-    <t>So who has the black box?</t>
-  </si>
-  <si>
-    <t>I do.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>So that means you're the guesser.</t>
+    <t xml:space="preserve">So you can press the blue button on your screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So who has the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that means you're the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> So you can tell, so you want to tell [id123] what you see in the black box?</t>
@@ -190,49 +199,49 @@
     <t xml:space="preserve"> No, you say what you see inside of the black box, the picture of the box?</t>
   </si>
   <si>
-    <t>What do you see inside of the black box?</t>
+    <t xml:space="preserve">What do you see inside of the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> No, [id123] doesn't have a black box, so you only have a black box, so you're telling Azure what you see in the black box so that you can guess.</t>
   </si>
   <si>
-    <t>Banana</t>
+    <t xml:space="preserve">Banana</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, and I see a banana.</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>So that means you can touch it to guess.</t>
-  </si>
-  <si>
-    <t>Great.</t>
-  </si>
-  <si>
-    <t>And that means you got it right.</t>
-  </si>
-  <si>
-    <t>So now you can tell [id124] what you see in the black box.</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that means you can touch it to guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And that means you got it right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now you can tell [id124] what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> In my black box, I see a dog.</t>
   </si>
   <si>
-    <t>A dog</t>
-  </si>
-  <si>
-    <t>I see a dog too.</t>
-  </si>
-  <si>
-    <t>So you can touch it.</t>
+    <t xml:space="preserve">A dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a dog too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you can touch it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Great, and that's how you guess.</t>
   </si>
   <si>
-    <t>I see a...</t>
+    <t xml:space="preserve">I see a...</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, wait, no.</t>
@@ -241,31 +250,31 @@
     <t xml:space="preserve"> So [id124] has the black box now, so [id124] is telling you, and you're guessing, for Smurphy.</t>
   </si>
   <si>
-    <t>I see a boat in my box.</t>
-  </si>
-  <si>
-    <t>A boat</t>
-  </si>
-  <si>
-    <t>I see a boat also.</t>
-  </si>
-  <si>
-    <t>My box.</t>
-  </si>
-  <si>
-    <t>I see...</t>
+    <t xml:space="preserve">I see a boat in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a boat also.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see...</t>
   </si>
   <si>
     <t xml:space="preserve"> It's okay, just try your best to say what you see in the box.</t>
   </si>
   <si>
-    <t>Just try to describe it.</t>
-  </si>
-  <si>
-    <t>I see something with like a triangle head.</t>
-  </si>
-  <si>
-    <t>Something with a triangle head</t>
+    <t xml:space="preserve">Just try to describe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see something with like a triangle head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something with a triangle head</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it's a duck.</t>
@@ -274,37 +283,40 @@
     <t xml:space="preserve"> If that's what you think it is, then you can just guess it.</t>
   </si>
   <si>
-    <t>I see a person in mine</t>
-  </si>
-  <si>
-    <t>A person</t>
-  </si>
-  <si>
-    <t>I see a person in mine also</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>I see something with triangle feet.</t>
-  </si>
-  <si>
-    <t>Something with triangle feet... somebody flying</t>
-  </si>
-  <si>
-    <t>I see somebody flying.</t>
-  </si>
-  <si>
-    <t>Nice.</t>
-  </si>
-  <si>
-    <t>I see something with a square in my box.</t>
-  </si>
-  <si>
-    <t>Something with a sqaure</t>
+    <t xml:space="preserve">I see a person in mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person in mine also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see something with triangle feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something with triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody flying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see something with a square in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something with a square</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, I see that also.</t>
@@ -313,100 +325,100 @@
     <t xml:space="preserve"> Oh, that's okay.</t>
   </si>
   <si>
-    <t>Do you want to say what you see in the black box?</t>
+    <t xml:space="preserve">Do you want to say what you see in the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> In the black box, I see something with a square head.</t>
   </si>
   <si>
-    <t>Something with a square head</t>
-  </si>
-  <si>
-    <t>I see something that is a square on a triangle balancing.</t>
-  </si>
-  <si>
-    <t>A square on a triangle balancing</t>
+    <t xml:space="preserve">Something with a square head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see something that is a square on a triangle balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A square on a triangle balancing</t>
   </si>
   <si>
     <t xml:space="preserve"> In the box, I see someone holding a triangle in their hand.</t>
   </si>
   <si>
-    <t>Someone holding a triangle in their hand</t>
-  </si>
-  <si>
-    <t>Smurphy's so happy.</t>
-  </si>
-  <si>
-    <t>I see someone jumping in my box.</t>
-  </si>
-  <si>
-    <t>Someone jumping</t>
+    <t xml:space="preserve">Someone holding a triangle in their hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see someone jumping in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone jumping</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, I see that on mine</t>
   </si>
   <si>
-    <t>Yay.</t>
+    <t xml:space="preserve">Yay.</t>
   </si>
   <si>
     <t xml:space="preserve"> In my box, I see somebody with a square head on like a diamond thing, triangle thing.</t>
   </si>
   <si>
-    <t>Somebody with a square head on like a diamond or triangle thing</t>
-  </si>
-  <si>
-    <t>Yay</t>
-  </si>
-  <si>
-    <t>I see someone holding a triangle that has a wick... a head</t>
-  </si>
-  <si>
-    <t>Someone holding a triangle thing that has a head</t>
+    <t xml:space="preserve">Somebody with a square head on like a diamond or triangle thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see someone holding a triangle that has a wick... a head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone holding a triangle thing that has a head</t>
   </si>
   <si>
     <t xml:space="preserve"> I see... like triangles with a square on top that looks like a boat.</t>
   </si>
   <si>
-    <t>Triangles with a square on top that looks like a boat</t>
-  </si>
-  <si>
-    <t>Nice! Great job.</t>
-  </si>
-  <si>
-    <t>Oh. I see them too</t>
-  </si>
-  <si>
-    <t>I see somebody with a square head with triangle feet</t>
-  </si>
-  <si>
-    <t>Somebody with a square head with triangle feet</t>
-  </si>
-  <si>
-    <t>I see a boat.</t>
-  </si>
-  <si>
-    <t>Oh.</t>
-  </si>
-  <si>
-    <t>I see somebody jumping.</t>
-  </si>
-  <si>
-    <t>Somebody jumping</t>
-  </si>
-  <si>
-    <t>I see someone holding a triangle with a head.</t>
-  </si>
-  <si>
-    <t>Someone holding a triangle with a head</t>
-  </si>
-  <si>
-    <t>I see somebody with a square head that's balancing on a triangle thing with triangle... with like triangle legs.</t>
-  </si>
-  <si>
-    <t>Somebody with a square head that's balancing on a triangle thing with triangle legs</t>
-  </si>
-  <si>
-    <t>That's okay.</t>
+    <t xml:space="preserve">Triangles with a square on top that looks like a boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice! Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh. I see them too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody with a square head with triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody with a square head with triangle feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see someone holding a triangle with a head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone holding a triangle with a head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody with a square head that's balancing on a triangle thing with triangle... with like triangle legs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody with a square head that's balancing on a triangle thing with triangle legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, you guys finished my game. Thank you so much. Smurphy's so happy. Thank you guys so much for helping him out. All right. Now we can go back to the classroom. So I'm going to just finish my recording.</t>
@@ -415,18 +427,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,32 +467,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,94 +537,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -565,33 +628,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -604,13 +658,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -620,15 +668,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -636,7 +682,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -644,11 +689,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -657,26 +702,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H118" activeCellId="0" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="49.75"/>
-    <col customWidth="1" min="4" max="4" width="15.5"/>
-    <col customWidth="1" min="5" max="5" width="9.25"/>
-    <col customWidth="1" min="6" max="6" width="13.75"/>
-    <col customWidth="1" min="8" max="8" width="31.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.88"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,12 +749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -716,12 +763,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -730,12 +777,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>8000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>16000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>16000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -744,12 +791,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>16000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>25000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -758,12 +805,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>25000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>29000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>29000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -772,12 +819,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>29000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>31000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>31000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -786,12 +833,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>38000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>38000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -800,12 +847,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>38000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>39000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>39000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -814,12 +861,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>39000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>39000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -828,12 +875,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>42000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -842,12 +889,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>51000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>52000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>51000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>52000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -856,12 +903,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>52000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>53000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>52000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>53000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -870,12 +917,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>53000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>55000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>53000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>55000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -884,12 +931,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>58000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>58000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -898,12 +945,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>58000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>60000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>58000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>60000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -912,12 +959,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>60000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>64000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>64000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -926,12 +973,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>64000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>66000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>64000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>66000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -940,12 +987,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>66000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>67000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>66000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>67000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -954,12 +1001,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>67000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>68000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>67000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>68000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -968,12 +1015,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>68000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>69000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>68000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>69000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -982,12 +1029,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>69000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>70000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>69000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>70000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -996,12 +1043,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>70000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>74000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>74000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1010,12 +1057,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>74000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>78000.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>74000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>78000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1024,12 +1071,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>78000.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>82000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>82000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1038,12 +1085,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>82000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>84000.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>82000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>84000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1052,12 +1099,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>84000.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>88740.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>84000</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>88740</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1066,12 +1113,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>89220.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>92940.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>89220</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>92940</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1080,12 +1127,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>93640.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>98980.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>93640</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>98980</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1094,12 +1141,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>99440.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>101240.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>99440</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>101240</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1108,12 +1155,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>101740.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>108080.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>101740</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>108080</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1122,12 +1169,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>108080.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>114080.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>108080</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>114080</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1136,12 +1183,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>114080.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>119080.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>114080</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>119080</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1150,12 +1197,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>119080.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>123080.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>119080</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>123080</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1164,12 +1211,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>123080.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>128080.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>123080</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>128080</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1178,12 +1225,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>128080.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>130080.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>128080</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>130080</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1192,12 +1239,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>130080.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>134080.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>130080</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>134080</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1206,12 +1253,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>134080.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>137400.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>134080</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>137400</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1220,12 +1267,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>137400.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>139580.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>137400</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>139580</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -1234,12 +1281,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>139580.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>141580.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>139580</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>141580</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -1248,12 +1295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>141580.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>142580.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>141580</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>142580</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1262,12 +1309,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>142580.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>146320.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>142580</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>146320</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1276,12 +1323,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>146320.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>148960.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>146320</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>148960</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -1290,12 +1337,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>148960.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>154420.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>148960</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>154420</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -1304,12 +1351,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>154420.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>155840.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>154420</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>155840</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -1317,16 +1364,16 @@
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>155840.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>156840.0</v>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>155840</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>156840</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
@@ -1338,12 +1385,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>156840.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>158840.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>156840</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>158840</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>55</v>
@@ -1352,12 +1399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>158840.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>165840.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>158840</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>165840</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>56</v>
@@ -1366,12 +1413,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>165840.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>170840.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>165840</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>170840</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
@@ -1383,12 +1430,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>170840.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>173840.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>170840</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>173840</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
@@ -1397,12 +1444,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>173840.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>175840.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>173840</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>175840</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
@@ -1414,12 +1461,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>175840.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>181840.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>175840</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>181840</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>60</v>
@@ -1428,12 +1475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>181840.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>183840.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>181840</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>183840</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>61</v>
@@ -1448,12 +1495,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>183840.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>185840.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>183840</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>185840</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>62</v>
@@ -1465,12 +1512,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>185840.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>188840.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>185840</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>188840</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>64</v>
@@ -1479,12 +1526,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>188840.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>189840.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>188840</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>189840</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>65</v>
@@ -1493,12 +1540,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>189840.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>191840.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>189840</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>191840</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>66</v>
@@ -1506,16 +1553,16 @@
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>195840.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>198840.0</v>
+      <c r="E57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>195840</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>198840</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>67</v>
@@ -1524,12 +1571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>198840.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>201840.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>198840</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>201840</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>68</v>
@@ -1544,12 +1591,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>201840.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>203840.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>201840</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>203840</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>70</v>
@@ -1561,12 +1608,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>203840.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>205840.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>203840</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>205840</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>71</v>
@@ -1575,12 +1622,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>205840.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>208840.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>205840</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>208840</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>72</v>
@@ -1588,16 +1635,16 @@
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>212840.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>213840.0</v>
+      <c r="E62" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>212840</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>213840</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>73</v>
@@ -1609,12 +1656,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>213840.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>214840.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>213840</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>214840</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>74</v>
@@ -1623,12 +1670,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>214840.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>219840.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>214840</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>219840</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>75</v>
@@ -1637,12 +1684,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>219840.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>221840.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>219840</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>221840</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>76</v>
@@ -1657,12 +1704,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>221840.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>224840.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>221840</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>224840</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>78</v>
@@ -1674,12 +1721,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>224840.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>229840.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>224840</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>229840</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>21</v>
@@ -1687,16 +1734,16 @@
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>229840.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>235840.0</v>
+      <c r="E68" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>229840</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>235840</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -1708,12 +1755,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>235840.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>236840.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>235840</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>236840</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>80</v>
@@ -1725,12 +1772,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>238840.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>254840.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>238840</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>254840</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>81</v>
@@ -1739,12 +1786,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>254840.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>257840.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>254840</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>257840</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>82</v>
@@ -1753,12 +1800,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>257840.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>261840.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>257840</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>261840</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>83</v>
@@ -1773,12 +1820,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>261840.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>263840.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>261840</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>263840</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
@@ -1790,12 +1837,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>263840.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>267840.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>263840</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>267840</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>86</v>
@@ -1804,12 +1851,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>267840.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>279840.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>267840</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>279840</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -1817,8 +1864,8 @@
       <c r="D76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="1">
-        <v>4.0</v>
+      <c r="E76" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>54</v>
@@ -1827,12 +1874,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>279840.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>282840.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>279840</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>282840</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
@@ -1844,12 +1891,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>282840.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>285840.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>282840</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>285840</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>90</v>
@@ -1857,16 +1904,16 @@
       <c r="D78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>285840.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>297840.0</v>
+      <c r="E78" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>285840</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>297840</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>92</v>
@@ -1881,12 +1928,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>297840.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>301840.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>297840</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>301840</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>94</v>
@@ -1897,33 +1944,36 @@
       <c r="F80" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>301840.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>304840.0</v>
+      <c r="H80" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>301840</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>304840</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>304840.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>313840.0</v>
+      <c r="E81" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>304840</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>313840</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>28</v>
@@ -1932,18 +1982,18 @@
         <v>54</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>313840.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>317840.0</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>313840</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>317840</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
@@ -1952,46 +2002,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>317840.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>320840.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>317840</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>320840</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>320840.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>335840.0</v>
+      <c r="E84" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>320840</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>335840</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>335840.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>341840.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>335840</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>341840</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>17</v>
@@ -2000,38 +2050,38 @@
         <v>54</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>341840.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>352840.0</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>341840</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>352840</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="1">
-        <v>8.0</v>
+      <c r="E87" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>352840.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>354840.0</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>352840</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>354840</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>90</v>
@@ -2039,19 +2089,19 @@
       <c r="D88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>356840.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>369840.0</v>
+      <c r="E88" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>356840</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>369840</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>17</v>
@@ -2060,15 +2110,15 @@
         <v>54</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>369840.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>370840.0</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>369840</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>370840</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
@@ -2077,12 +2127,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>370840.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>371840.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>370840</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>371840</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>90</v>
@@ -2090,33 +2140,33 @@
       <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>371840.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>373840.0</v>
+      <c r="E91" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>371840</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>373840</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>373840.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>381840.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>373840</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>381840</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>28</v>
@@ -2125,18 +2175,18 @@
         <v>54</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>381840.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>385840.0</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>381840</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>385840</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>17</v>
@@ -2145,46 +2195,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>385840.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>387840.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>385840</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>387840</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>387840.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>388840.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>387840</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>388840</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>389840.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>399840.0</v>
+      <c r="E96" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>389840</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>399840</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
@@ -2193,35 +2243,35 @@
         <v>54</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>399840.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>401840.0</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>399840</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>401840</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>402840.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>420840.0</v>
+      <c r="E98" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>402840</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>420840</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>28</v>
@@ -2230,58 +2280,58 @@
         <v>54</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>420840.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>427840.0</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>420840</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>427840</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="1">
-        <v>13.0</v>
+      <c r="E100" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>427840.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>432840.0</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>427840</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>432840</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>432840.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>443840.0</v>
+      <c r="E101" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>432840</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>443840</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>28</v>
@@ -2290,18 +2340,18 @@
         <v>54</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>443840.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>445840.0</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>443840</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>445840</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>17</v>
@@ -2310,12 +2360,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>445840.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>447840.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>445840</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>447840</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>90</v>
@@ -2323,19 +2373,19 @@
       <c r="D104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>466840.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>468840.0</v>
+      <c r="E104" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>466840</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>468840</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>17</v>
@@ -2344,35 +2394,35 @@
         <v>54</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>468840.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>473840.0</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>468840</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>473840</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>473840.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>474840.0</v>
+      <c r="E106" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>473840</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>474840</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -2384,15 +2434,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>476840.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>477840.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>476840</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>477840</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>17</v>
@@ -2401,32 +2451,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>477840.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>479840.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>477840</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>479840</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>479840.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>486840.0</v>
+      <c r="E109" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>479840</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>486840</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>17</v>
@@ -2435,35 +2485,35 @@
         <v>54</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>486840.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>491840.0</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>486840</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>491840</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>491840.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>501840.0</v>
+      <c r="E111" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>491840</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>501840</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>28</v>
@@ -2472,61 +2522,67 @@
         <v>54</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>501840.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>518840.0</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>501840</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>518840</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="1">
-        <v>19.0</v>
+      <c r="E113" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>518840.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>529840.0</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>518840</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>529840</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>529840.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>544500.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>529840</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>544500</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game68.xlsx
+++ b/data/expt_2/raw_transcripts/game68.xlsx
@@ -370,7 +370,7 @@
     <t xml:space="preserve"> In my box, I see somebody with a square head on like a diamond thing, triangle thing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Somebody with a square head on like a diamond or triangle thing</t>
+    <t xml:space="preserve">Somebody with a square head on like a diamond thing, triangle thing</t>
   </si>
   <si>
     <t xml:space="preserve">Yay</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">I see someone holding a triangle that has a wick... a head</t>
   </si>
   <si>
-    <t xml:space="preserve">Someone holding a triangle thing that has a head</t>
+    <t xml:space="preserve">Someone holding a triangle that has a wick, a head</t>
   </si>
   <si>
     <t xml:space="preserve"> I see... like triangles with a square on top that looks like a boat.</t>
@@ -510,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,10 +520,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,9 +719,9 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
+      <selection pane="bottomLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2003,7 +1999,7 @@
       <c r="F80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I80" s="3" t="s">
